--- a/Documentation/Taskliste1.xlsx
+++ b/Documentation/Taskliste1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanhollet/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDant\GIT\ProjectWatch\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Tasknr.</t>
   </si>
@@ -44,49 +44,52 @@
     <t>Geschätzte Anzahl Stunden</t>
   </si>
   <si>
-    <t xml:space="preserve">Code écrit pour lancer une fenêtre Java </t>
-  </si>
-  <si>
-    <t>Code écrit pour créer un bouton dans la fenêtre</t>
-  </si>
-  <si>
-    <t>Code écrit pour rajouter un menu dans la fenêtre</t>
-  </si>
-  <si>
-    <t>Ajout de commentaires dans la fenêtre</t>
-  </si>
-  <si>
     <t>Début d'écriture du fichier README.md sur GITHUB</t>
   </si>
   <si>
-    <t>Création d'un sommaire dans le fichier README.md</t>
-  </si>
-  <si>
     <t>Création des fichiers UserStories.xls ainsi que ReleasePlan.docx</t>
   </si>
   <si>
-    <t>Code écrit pour personnaliser les menus de la barre des tâches</t>
-  </si>
-  <si>
-    <t>Code écrit pour créer une montre digitale</t>
-  </si>
-  <si>
-    <t>Code écrit pour relier les menus de la barre des tâches au programme du cadran</t>
-  </si>
-  <si>
-    <t>Code écrit pour que le cadran digitale s'ouvre dans la même fenêtre que la barre des tâches</t>
-  </si>
-  <si>
-    <t>Code écrit pour qu'il soit possible de cliquer sur le cadran digitale afin qu'il s'arrête et de recliquer dessus afin de le relancer</t>
-  </si>
-  <si>
-    <t>Mise à jour des différents fichiers de documentation</t>
+    <t>Code pour permettre d'afficher une fenêtre sur java</t>
+  </si>
+  <si>
+    <t>Code pour implémenter des bouton dans la fenêtre java</t>
+  </si>
+  <si>
+    <t>Code pour rajouter un des menus dans la fenêtre</t>
+  </si>
+  <si>
+    <t>Ajout de commentaires dans les codes pour l'affichage de la fenêtre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création d'un sommaire dans le fichier README.md </t>
+  </si>
+  <si>
+    <t>Code pour personnaliser les menus de la barre des tâches de la fenêtre</t>
+  </si>
+  <si>
+    <t>Recherche sur internet pour coder la montre digitale</t>
+  </si>
+  <si>
+    <t>Ecriture du code afin de créer une montre digitale</t>
+  </si>
+  <si>
+    <t>Code pour relier les menus de la barre des tâches (de la fenêtre) au programme de l'horlode "cadran"</t>
+  </si>
+  <si>
+    <t>Code pour que le cadran digitale s'ouvre dans la même fenêtre que la barre des tâches</t>
+  </si>
+  <si>
+    <t>Code pour qu'il soit possible de cliquer sur le cadran digitale afin qu'il s'arrête et de recliquer dessus afin de le relancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise à jour des différents fichiers de documentation </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -140,6 +143,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -407,22 +413,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="79.83203125" customWidth="1"/>
+    <col min="2" max="2" width="87.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="5" max="5" width="32.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,69 +445,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Taskliste1.xlsx
+++ b/Documentation/Taskliste1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDant\GIT\ProjectWatch\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\cours\semestre 3\watch\ProjectWatch\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Tasknr.</t>
   </si>
@@ -84,12 +84,15 @@
   </si>
   <si>
     <t xml:space="preserve">Mise à jour des différents fichiers de documentation </t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -413,22 +416,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="87.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="32.19921875" customWidth="1"/>
+    <col min="5" max="5" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,74 +448,158 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Taskliste1.xlsx
+++ b/Documentation/Taskliste1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>Tasknr.</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>1/2h</t>
+  </si>
+  <si>
+    <t>2h</t>
   </si>
 </sst>
 </file>
@@ -131,12 +140,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +431,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -428,7 +439,7 @@
     <col min="2" max="2" width="87.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="32.25" customWidth="1"/>
+    <col min="5" max="5" width="32.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -444,11 +455,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -458,8 +472,14 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -469,8 +489,14 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -480,8 +506,14 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -491,8 +523,14 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -502,8 +540,14 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -513,8 +557,14 @@
       <c r="D7" t="s">
         <v>19</v>
       </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -524,8 +574,14 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -535,30 +591,48 @@
       <c r="D9" t="s">
         <v>19</v>
       </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -568,8 +642,14 @@
       <c r="D12" t="s">
         <v>19</v>
       </c>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -579,8 +659,14 @@
       <c r="D13" t="s">
         <v>19</v>
       </c>
+      <c r="E13" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -590,8 +676,14 @@
       <c r="D14" t="s">
         <v>19</v>
       </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -600,6 +692,9 @@
       </c>
       <c r="D15" t="s">
         <v>19</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Taskliste1.xlsx
+++ b/Documentation/Taskliste1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\cours\semestre 3\watch\ProjectWatch\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanhollet/Desktop/GitProjet/ProjectWatch/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -74,15 +74,6 @@
     <t>Ecriture du code afin de créer une montre digitale</t>
   </si>
   <si>
-    <t>Code pour relier les menus de la barre des tâches (de la fenêtre) au programme de l'horlode "cadran"</t>
-  </si>
-  <si>
-    <t>Code pour que le cadran digitale s'ouvre dans la même fenêtre que la barre des tâches</t>
-  </si>
-  <si>
-    <t>Code pour qu'il soit possible de cliquer sur le cadran digitale afin qu'il s'arrête et de recliquer dessus afin de le relancer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mise à jour des différents fichiers de documentation </t>
   </si>
   <si>
@@ -96,12 +87,21 @@
   </si>
   <si>
     <t>2h</t>
+  </si>
+  <si>
+    <t>Code écrit pour relier les menus de la barre des tâches (de la fenêtre) au programme de l'horlode "cadran"</t>
+  </si>
+  <si>
+    <t>Code écrit pour que le cadran digitale s'ouvre dans la même fenêtre que la barre des tâches</t>
+  </si>
+  <si>
+    <t>Code écrit pour qu'il soit possible de cliquer sur le cadran digitale afin qu'il s'arrête et de recliquer dessus afin de le relancer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -120,15 +120,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,18 +142,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,270 +454,270 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="87.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="32.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+    </row>
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
